--- a/logfc_Analysis/logfc_phyD_HC/meta_phyDflt_t.xlsx
+++ b/logfc_Analysis/logfc_phyD_HC/meta_phyDflt_t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\NASA_GeneLab\logfc_Analysis\logfc_phyD_HC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC01731-F970-4DF9-B4F1-63A80C1362B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B67F8A-B6F0-47FC-9DCE-8815B24F5DD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{4D1E62B4-AA48-4A8D-828F-F562A6A9E2C0}"/>
+    <workbookView xWindow="11004" yWindow="36" windowWidth="12036" windowHeight="8964" xr2:uid="{4D1E62B4-AA48-4A8D-828F-F562A6A9E2C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="388">
   <si>
     <t>TAIR</t>
   </si>
@@ -1177,6 +1177,34 @@
   </si>
   <si>
     <t>GO:0000003, GO:0000228, GO:0005622, GO:0005634, GO:0005694, GO:0006139, GO:0006259, GO:0006310, GO:0006807, GO:0007049, GO:0007126, GO:0008152, GO:0009987, GO:0043226, GO:0044238, GO:0044464</t>
+  </si>
+  <si>
+    <t>Subcellular location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Golgi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endoplasmic reticulum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma membrane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vacuole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nucleus, Cytosol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1540,15 +1568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135FD45-6C90-4865-AE64-394A8F5C85A9}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1559,19 +1587,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1582,19 +1613,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>839301</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1605,19 +1639,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>839565</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1628,19 +1665,22 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>839520</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1651,19 +1691,22 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>837035</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1674,19 +1717,22 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>837378</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1697,19 +1743,22 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>837399</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1720,19 +1769,22 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>837737</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1743,19 +1795,22 @@
         <v>47</v>
       </c>
       <c r="D9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>837791</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1766,19 +1821,22 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>837958</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1789,19 +1847,22 @@
         <v>58</v>
       </c>
       <c r="D11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>839749</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1812,19 +1873,22 @@
         <v>64</v>
       </c>
       <c r="D12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>839807</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1835,19 +1899,22 @@
         <v>70</v>
       </c>
       <c r="D13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>841244</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1858,19 +1925,22 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E14" t="s">
         <v>77</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>841472</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1881,19 +1951,22 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15" t="s">
         <v>82</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>841962</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>83</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -1904,19 +1977,22 @@
         <v>86</v>
       </c>
       <c r="D16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" t="s">
         <v>87</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>843468</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>88</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1927,19 +2003,22 @@
         <v>92</v>
       </c>
       <c r="D17" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" t="s">
         <v>93</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>843512</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>94</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1950,19 +2029,22 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" t="s">
         <v>98</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>844297</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -1973,19 +2055,22 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" t="s">
         <v>102</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>815211</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>103</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -1996,19 +2081,22 @@
         <v>107</v>
       </c>
       <c r="D20" t="s">
+        <v>386</v>
+      </c>
+      <c r="E20" t="s">
         <v>108</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>815960</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>109</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2019,19 +2107,22 @@
         <v>112</v>
       </c>
       <c r="D21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" t="s">
         <v>113</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>816289</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>114</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -2042,19 +2133,22 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" t="s">
         <v>119</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>816310</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>120</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -2065,16 +2159,19 @@
         <v>123</v>
       </c>
       <c r="D23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" t="s">
         <v>124</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>817306</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>126</v>
       </c>
@@ -2085,19 +2182,22 @@
         <v>128</v>
       </c>
       <c r="D24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" t="s">
         <v>129</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>818086</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>130</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -2108,19 +2208,22 @@
         <v>133</v>
       </c>
       <c r="D25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" t="s">
         <v>134</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>818264</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>135</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -2131,19 +2234,22 @@
         <v>138</v>
       </c>
       <c r="D26" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" t="s">
         <v>139</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>818331</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>140</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -2154,19 +2260,22 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" t="s">
         <v>144</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>818416</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>145</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -2177,19 +2286,22 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E28" t="s">
         <v>148</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>818631</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>149</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -2200,19 +2312,22 @@
         <v>152</v>
       </c>
       <c r="D29" t="s">
+        <v>385</v>
+      </c>
+      <c r="E29" t="s">
         <v>153</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>820355</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>154</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -2223,16 +2338,19 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>385</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -2243,19 +2361,22 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" t="s">
         <v>160</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>820581</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>161</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -2266,19 +2387,22 @@
         <v>164</v>
       </c>
       <c r="D32" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" t="s">
         <v>165</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>821534</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>166</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>168</v>
       </c>
@@ -2289,19 +2413,22 @@
         <v>170</v>
       </c>
       <c r="D33" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" t="s">
         <v>171</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>821573</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>172</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2312,19 +2439,22 @@
         <v>176</v>
       </c>
       <c r="D34" t="s">
+        <v>383</v>
+      </c>
+      <c r="E34" t="s">
         <v>177</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>821868</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>178</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -2335,19 +2465,22 @@
         <v>182</v>
       </c>
       <c r="D35" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" t="s">
         <v>183</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>822375</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>184</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>186</v>
       </c>
@@ -2358,19 +2491,22 @@
         <v>188</v>
       </c>
       <c r="D36" t="s">
+        <v>384</v>
+      </c>
+      <c r="E36" t="s">
         <v>189</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>824384</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -2381,19 +2517,22 @@
         <v>193</v>
       </c>
       <c r="D37" t="s">
+        <v>384</v>
+      </c>
+      <c r="E37" t="s">
         <v>194</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>824597</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>195</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>196</v>
       </c>
@@ -2404,19 +2543,22 @@
         <v>198</v>
       </c>
       <c r="D38" t="s">
+        <v>383</v>
+      </c>
+      <c r="E38" t="s">
         <v>199</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>824649</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>200</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>202</v>
       </c>
@@ -2427,19 +2569,22 @@
         <v>204</v>
       </c>
       <c r="D39" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" t="s">
         <v>205</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>824651</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>206</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>207</v>
       </c>
@@ -2450,19 +2595,22 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
+        <v>383</v>
+      </c>
+      <c r="E40" t="s">
         <v>209</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>824777</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>210</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -2473,19 +2621,22 @@
         <v>213</v>
       </c>
       <c r="D41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E41" t="s">
         <v>214</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>824986</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>215</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -2496,19 +2647,22 @@
         <v>219</v>
       </c>
       <c r="D42" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" t="s">
         <v>220</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>825830</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>221</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>222</v>
       </c>
@@ -2519,19 +2673,22 @@
         <v>224</v>
       </c>
       <c r="D43" t="s">
+        <v>383</v>
+      </c>
+      <c r="E43" t="s">
         <v>225</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>827091</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>226</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>227</v>
       </c>
@@ -2542,19 +2699,22 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" t="s">
         <v>229</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>827153</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>230</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>231</v>
       </c>
@@ -2565,19 +2725,22 @@
         <v>233</v>
       </c>
       <c r="D45" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" t="s">
         <v>234</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>827328</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>235</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>237</v>
       </c>
@@ -2588,19 +2751,22 @@
         <v>138</v>
       </c>
       <c r="D46" t="s">
+        <v>383</v>
+      </c>
+      <c r="E46" t="s">
         <v>239</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>827512</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>240</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -2611,19 +2777,22 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" t="s">
         <v>243</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>827637</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>244</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -2634,19 +2803,22 @@
         <v>248</v>
       </c>
       <c r="D48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E48" t="s">
         <v>249</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>827690</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>250</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>252</v>
       </c>
@@ -2657,19 +2829,22 @@
         <v>254</v>
       </c>
       <c r="D49" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" t="s">
         <v>255</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>827789</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>256</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>258</v>
       </c>
@@ -2680,19 +2855,22 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" t="s">
         <v>260</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>828241</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>261</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>262</v>
       </c>
@@ -2703,19 +2881,22 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
+        <v>383</v>
+      </c>
+      <c r="E51" t="s">
         <v>264</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>828557</v>
-      </c>
-      <c r="F51" t="s">
-        <v>9</v>
       </c>
       <c r="G51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>265</v>
       </c>
@@ -2726,19 +2907,22 @@
         <v>267</v>
       </c>
       <c r="D52" t="s">
+        <v>382</v>
+      </c>
+      <c r="E52" t="s">
         <v>268</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>828716</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>269</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>270</v>
       </c>
@@ -2749,19 +2933,22 @@
         <v>272</v>
       </c>
       <c r="D53" t="s">
+        <v>384</v>
+      </c>
+      <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>828816</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>274</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>275</v>
       </c>
@@ -2772,19 +2959,22 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" t="s">
         <v>277</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>828972</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>278</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>279</v>
       </c>
@@ -2795,19 +2985,22 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
+        <v>382</v>
+      </c>
+      <c r="E55" t="s">
         <v>281</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>829007</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>9</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>282</v>
       </c>
@@ -2818,19 +3011,22 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
+        <v>385</v>
+      </c>
+      <c r="E56" t="s">
         <v>284</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>831904</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>285</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>287</v>
       </c>
@@ -2841,19 +3037,22 @@
         <v>289</v>
       </c>
       <c r="D57" t="s">
+        <v>385</v>
+      </c>
+      <c r="E57" t="s">
         <v>290</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>831809</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>291</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>292</v>
       </c>
@@ -2864,19 +3063,22 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
+        <v>385</v>
+      </c>
+      <c r="E58" t="s">
         <v>294</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>830602</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>295</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>296</v>
       </c>
@@ -2887,19 +3089,22 @@
         <v>298</v>
       </c>
       <c r="D59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" t="s">
         <v>299</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>830702</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>300</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>301</v>
       </c>
@@ -2910,16 +3115,19 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" t="s">
         <v>303</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>831112</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>305</v>
       </c>
@@ -2930,19 +3138,22 @@
         <v>307</v>
       </c>
       <c r="D61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" t="s">
         <v>308</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>831171</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>309</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>311</v>
       </c>
@@ -2953,19 +3164,22 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
+        <v>385</v>
+      </c>
+      <c r="E62" t="s">
         <v>313</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>832340</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>9</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -2976,19 +3190,22 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
+        <v>382</v>
+      </c>
+      <c r="E63" t="s">
         <v>317</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>832359</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>318</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>320</v>
       </c>
@@ -2999,19 +3216,22 @@
         <v>322</v>
       </c>
       <c r="D64" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" t="s">
         <v>323</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>833946</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>324</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>325</v>
       </c>
@@ -3022,19 +3242,22 @@
         <v>327</v>
       </c>
       <c r="D65" t="s">
+        <v>386</v>
+      </c>
+      <c r="E65" t="s">
         <v>328</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>833947</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>329</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>330</v>
       </c>
@@ -3045,19 +3268,22 @@
         <v>9</v>
       </c>
       <c r="D66" t="s">
+        <v>382</v>
+      </c>
+      <c r="E66" t="s">
         <v>332</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>834483</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>333</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>334</v>
       </c>
@@ -3068,19 +3294,22 @@
         <v>138</v>
       </c>
       <c r="D67" t="s">
+        <v>383</v>
+      </c>
+      <c r="E67" t="s">
         <v>336</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>834718</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>337</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>338</v>
       </c>
@@ -3091,19 +3320,22 @@
         <v>340</v>
       </c>
       <c r="D68" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" t="s">
         <v>341</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>834730</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>342</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>343</v>
       </c>
@@ -3114,19 +3346,22 @@
         <v>92</v>
       </c>
       <c r="D69" t="s">
+        <v>385</v>
+      </c>
+      <c r="E69" t="s">
         <v>345</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>835046</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>346</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>348</v>
       </c>
@@ -3137,19 +3372,22 @@
         <v>350</v>
       </c>
       <c r="D70" t="s">
+        <v>383</v>
+      </c>
+      <c r="E70" t="s">
         <v>351</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>835217</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>352</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>354</v>
       </c>
@@ -3160,16 +3398,19 @@
         <v>356</v>
       </c>
       <c r="D71" t="s">
+        <v>382</v>
+      </c>
+      <c r="E71" t="s">
         <v>357</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>835297</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>359</v>
       </c>
@@ -3180,19 +3421,22 @@
         <v>361</v>
       </c>
       <c r="D72" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" t="s">
         <v>362</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>835435</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>363</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>364</v>
       </c>
@@ -3203,19 +3447,22 @@
         <v>366</v>
       </c>
       <c r="D73" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" t="s">
         <v>367</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>835516</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>368</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>369</v>
       </c>
@@ -3226,19 +3473,22 @@
         <v>371</v>
       </c>
       <c r="D74" t="s">
+        <v>385</v>
+      </c>
+      <c r="E74" t="s">
         <v>372</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>836242</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>373</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -3249,15 +3499,18 @@
         <v>377</v>
       </c>
       <c r="D75" t="s">
+        <v>383</v>
+      </c>
+      <c r="E75" t="s">
         <v>378</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>836733</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>379</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>380</v>
       </c>
     </row>
